--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANUL3\PI\1.1.1.1.1.1.Proiect\Image_Processing_Semnaturi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCBEEF2-72B3-432D-91FE-3FB5B28A55BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD469F56-D380-4D30-A725-0231930B3648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{5696413B-0597-4B9E-A712-CC8800F65BC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>k</t>
   </si>
@@ -46,15 +46,27 @@
   <si>
     <t>passed tests cosine similarity</t>
   </si>
+  <si>
+    <t>% euclidian heuristic passed tests</t>
+  </si>
+  <si>
+    <t>% cosine similarity passed tests</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,7 +190,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.4489334287759486E-2"/>
+          <c:y val="0.17791666666666667"/>
+          <c:w val="0.93641975662133148"/>
+          <c:h val="0.73783209390492854"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -186,7 +208,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>passed tests</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% euclidian heuristic passed tests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -202,59 +232,62 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:f>(Sheet1!$A$2,Sheet1!$A$2:$A$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
@@ -262,63 +295,60 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$B$2,Sheet1!$B$2:$B$18)</c:f>
+              <c:f>Sheet1!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1485</c:v>
+                  <c:v>71.566265060240966</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1485</c:v>
+                  <c:v>69.253012048192772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1437</c:v>
+                  <c:v>70.506024096385545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1463</c:v>
+                  <c:v>70.313253012048193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1459</c:v>
+                  <c:v>70.07228915662651</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1454</c:v>
+                  <c:v>69.975903614457835</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1452</c:v>
+                  <c:v>69.349397590361448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1439</c:v>
+                  <c:v>69.349397590361448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1439</c:v>
+                  <c:v>68.771084337349393</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1427</c:v>
+                  <c:v>67.46987951807229</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1400</c:v>
+                  <c:v>67.373493975903614</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1398</c:v>
+                  <c:v>67.518072289156635</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1401</c:v>
+                  <c:v>67.46987951807229</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>66.746987951807228</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1385</c:v>
+                  <c:v>66.506024096385545</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1380</c:v>
+                  <c:v>65.927710843373504</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1368</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1364</c:v>
+                  <c:v>65.734939759036152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,15 +612,108 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% euclidian heuristic passed tests</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>71.566265060240966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.253012048192772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.506024096385545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.313253012048193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.07228915662651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.975903614457835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.349397590361448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.349397590361448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68.771084337349393</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.46987951807229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.373493975903614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.518072289156635</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>67.46987951807229</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.746987951807228</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.506024096385545</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.927710843373504</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.734939759036152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AC0-4906-9822-06C1347E6A46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$41</c:f>
+              <c:f>Sheet1!$E$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>passed tests ecuclidian heuristic</c:v>
+                  <c:v>% cosine similarity passed tests</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -609,60 +732,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$42:$B$58</c:f>
+              <c:f>Sheet1!$E$42:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1485</c:v>
+                  <c:v>72.626506024096386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1437</c:v>
+                  <c:v>69.831325301204814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1463</c:v>
+                  <c:v>70.939759036144579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1459</c:v>
+                  <c:v>70.409638554216869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1454</c:v>
+                  <c:v>70.120481927710841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1452</c:v>
+                  <c:v>69.734939759036138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1439</c:v>
+                  <c:v>68.9156626506024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1439</c:v>
+                  <c:v>68.192771084337352</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1427</c:v>
+                  <c:v>67.228915662650607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1400</c:v>
+                  <c:v>66.746987951807228</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1398</c:v>
+                  <c:v>66.265060240963862</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1401</c:v>
+                  <c:v>65.975903614457835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1400</c:v>
+                  <c:v>65.5421686746988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1385</c:v>
+                  <c:v>64.867469879518069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1380</c:v>
+                  <c:v>64.578313253012041</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1368</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1364</c:v>
+                  <c:v>63.903614457831324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,100 +793,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-46AA-4D31-A2BD-6213F41B1ED4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>passed tests cosine similarity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$42:$C$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1507</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1449</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1472</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1461</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1455</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1447</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1430</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1415</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1395</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1385</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1369</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1346</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1340</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1328</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1326</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-46AA-4D31-A2BD-6213F41B1ED4}"/>
+              <c16:uniqueId val="{00000001-6AC0-4906-9822-06C1347E6A46}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -778,117 +808,7 @@
         <c:smooth val="0"/>
         <c:axId val="447703023"/>
         <c:axId val="447704943"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$41</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>k</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$42:$A$58</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="17"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-46AA-4D31-A2BD-6213F41B1ED4}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="447703023"/>
@@ -1094,46 +1014,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Cosine Similarity</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1170,15 +1050,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$21</c:f>
+              <c:f>Sheet1!$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>passed tests cosine similarity</c:v>
+                  <c:v>% cosine similarity passed tests</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1197,60 +1077,60 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$B$38</c:f>
+              <c:f>Sheet1!$C$22:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1507</c:v>
+                  <c:v>72.626506024096386</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1449</c:v>
+                  <c:v>69.831325301204814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1472</c:v>
+                  <c:v>70.939759036144579</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1461</c:v>
+                  <c:v>70.409638554216869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1455</c:v>
+                  <c:v>70.120481927710841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1447</c:v>
+                  <c:v>69.734939759036138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1430</c:v>
+                  <c:v>68.9156626506024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1415</c:v>
+                  <c:v>68.192771084337352</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1395</c:v>
+                  <c:v>67.228915662650607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1385</c:v>
+                  <c:v>66.746987951807228</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1375</c:v>
+                  <c:v>66.265060240963862</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1369</c:v>
+                  <c:v>65.975903614457835</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1360</c:v>
+                  <c:v>65.5421686746988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1346</c:v>
+                  <c:v>64.867469879518069</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1340</c:v>
+                  <c:v>64.578313253012041</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1328</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1326</c:v>
+                  <c:v>63.903614457831324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,7 +1138,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8C86-498C-8258-DC1E3A4829E9}"/>
+              <c16:uniqueId val="{00000000-EF80-41B6-B5B9-98251BFFF201}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1271,122 +1151,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="63912767"/>
-        <c:axId val="63916607"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>k</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$22:$A$38</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="17"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>17</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-8C86-498C-8258-DC1E3A4829E9}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="1418844864"/>
+        <c:axId val="1418845344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63912767"/>
+        <c:axId val="1418844864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63916607"/>
+        <c:crossAx val="1418845344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1436,10 +1205,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63916607"/>
+        <c:axId val="1418845344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1488,7 +1256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63912767"/>
+        <c:crossAx val="1418844864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3216,16 +2984,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>168275</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3252,16 +3020,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22224</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3288,23 +3056,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>193674</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>222249</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C679B8-042A-939C-EEEE-5CA82C938C11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACE9D1B-27DE-AB6C-600E-9302DC4D60B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3622,307 +3390,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57025795-8FEE-43BE-90F8-2E92F481DD61}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1485</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <f xml:space="preserve"> B2 /2075 * 100</f>
+        <v>71.566265060240966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1437</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <f t="shared" ref="C3:C18" si="0" xml:space="preserve"> B3 /2075 * 100</f>
+        <v>69.253012048192772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>1463</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>70.506024096385545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1459</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>70.313253012048193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1454</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>70.07228915662651</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1452</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>69.975903614457835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1439</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>69.349397590361448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1439</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>69.349397590361448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>1427</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>68.771084337349393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1400</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>67.46987951807229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1398</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>67.373493975903614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1401</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>67.518072289156635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1400</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>67.46987951807229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1385</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>66.746987951807228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>1380</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>66.506024096385545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>1368</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>65.927710843373504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>1364</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>65.734939759036152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
         <v>1507</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <f xml:space="preserve"> B22 / 2075 *100</f>
+        <v>72.626506024096386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <v>1449</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <f t="shared" ref="C23:C37" si="1" xml:space="preserve"> B23 / 2075 *100</f>
+        <v>69.831325301204814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24">
         <v>1472</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>70.939759036144579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
         <v>1461</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>70.409638554216869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26">
         <v>1455</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>70.120481927710841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6</v>
       </c>
       <c r="B27">
         <v>1447</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>69.734939759036138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>7</v>
       </c>
       <c r="B28">
         <v>1430</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>68.9156626506024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
       <c r="B29">
         <v>1415</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>68.192771084337352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
       <c r="B30">
         <v>1395</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>67.228915662650607</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>10</v>
       </c>
       <c r="B31">
         <v>1385</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>66.746987951807228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>11</v>
       </c>
       <c r="B32">
         <v>1375</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>66.265060240963862</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>12</v>
       </c>
       <c r="B33">
         <v>1369</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>65.975903614457835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>13</v>
       </c>
       <c r="B34">
         <v>1360</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>65.5421686746988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>14</v>
       </c>
       <c r="B35">
         <v>1346</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>64.867469879518069</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>15</v>
       </c>
       <c r="B36">
         <v>1340</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>64.578313253012041</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>16</v>
       </c>
       <c r="B37">
         <v>1328</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>17</v>
       </c>
       <c r="B38">
         <v>1326</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <f xml:space="preserve"> B38 / 2075 *100</f>
+        <v>63.903614457831324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3930,10 +3842,16 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3941,10 +3859,18 @@
         <v>1485</v>
       </c>
       <c r="C42">
+        <f xml:space="preserve"> B42 /2075 * 100</f>
+        <v>71.566265060240966</v>
+      </c>
+      <c r="D42">
         <v>1507</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <f xml:space="preserve"> D42 / 2075 * 100</f>
+        <v>72.626506024096386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3952,10 +3878,18 @@
         <v>1437</v>
       </c>
       <c r="C43">
+        <f t="shared" ref="C43:C58" si="2" xml:space="preserve"> B43 /2075 * 100</f>
+        <v>69.253012048192772</v>
+      </c>
+      <c r="D43">
         <v>1449</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E43">
+        <f t="shared" ref="E43:E58" si="3" xml:space="preserve"> D43 / 2075 * 100</f>
+        <v>69.831325301204814</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3</v>
       </c>
@@ -3963,10 +3897,18 @@
         <v>1463</v>
       </c>
       <c r="C44">
+        <f t="shared" si="2"/>
+        <v>70.506024096385545</v>
+      </c>
+      <c r="D44">
         <v>1472</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>70.939759036144579</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3974,10 +3916,18 @@
         <v>1459</v>
       </c>
       <c r="C45">
+        <f t="shared" si="2"/>
+        <v>70.313253012048193</v>
+      </c>
+      <c r="D45">
         <v>1461</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>70.409638554216869</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3985,10 +3935,18 @@
         <v>1454</v>
       </c>
       <c r="C46">
+        <f t="shared" si="2"/>
+        <v>70.07228915662651</v>
+      </c>
+      <c r="D46">
         <v>1455</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>70.120481927710841</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>6</v>
       </c>
@@ -3996,10 +3954,18 @@
         <v>1452</v>
       </c>
       <c r="C47">
+        <f t="shared" si="2"/>
+        <v>69.975903614457835</v>
+      </c>
+      <c r="D47">
         <v>1447</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>69.734939759036138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>7</v>
       </c>
@@ -4007,10 +3973,18 @@
         <v>1439</v>
       </c>
       <c r="C48">
+        <f t="shared" si="2"/>
+        <v>69.349397590361448</v>
+      </c>
+      <c r="D48">
         <v>1430</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>68.9156626506024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>8</v>
       </c>
@@ -4018,10 +3992,18 @@
         <v>1439</v>
       </c>
       <c r="C49">
+        <f t="shared" si="2"/>
+        <v>69.349397590361448</v>
+      </c>
+      <c r="D49">
         <v>1415</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>68.192771084337352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>9</v>
       </c>
@@ -4029,10 +4011,18 @@
         <v>1427</v>
       </c>
       <c r="C50">
+        <f t="shared" si="2"/>
+        <v>68.771084337349393</v>
+      </c>
+      <c r="D50">
         <v>1395</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>67.228915662650607</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>10</v>
       </c>
@@ -4040,10 +4030,18 @@
         <v>1400</v>
       </c>
       <c r="C51">
+        <f t="shared" si="2"/>
+        <v>67.46987951807229</v>
+      </c>
+      <c r="D51">
         <v>1385</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>66.746987951807228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>11</v>
       </c>
@@ -4051,10 +4049,18 @@
         <v>1398</v>
       </c>
       <c r="C52">
+        <f t="shared" si="2"/>
+        <v>67.373493975903614</v>
+      </c>
+      <c r="D52">
         <v>1375</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>66.265060240963862</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>12</v>
       </c>
@@ -4062,10 +4068,18 @@
         <v>1401</v>
       </c>
       <c r="C53">
+        <f t="shared" si="2"/>
+        <v>67.518072289156635</v>
+      </c>
+      <c r="D53">
         <v>1369</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>65.975903614457835</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>13</v>
       </c>
@@ -4073,10 +4087,18 @@
         <v>1400</v>
       </c>
       <c r="C54">
+        <f t="shared" si="2"/>
+        <v>67.46987951807229</v>
+      </c>
+      <c r="D54">
         <v>1360</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>65.5421686746988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>14</v>
       </c>
@@ -4084,10 +4106,18 @@
         <v>1385</v>
       </c>
       <c r="C55">
+        <f t="shared" si="2"/>
+        <v>66.746987951807228</v>
+      </c>
+      <c r="D55">
         <v>1346</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>64.867469879518069</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>15</v>
       </c>
@@ -4095,10 +4125,18 @@
         <v>1380</v>
       </c>
       <c r="C56">
+        <f t="shared" si="2"/>
+        <v>66.506024096385545</v>
+      </c>
+      <c r="D56">
         <v>1340</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>64.578313253012041</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>16</v>
       </c>
@@ -4106,10 +4144,18 @@
         <v>1368</v>
       </c>
       <c r="C57">
+        <f t="shared" si="2"/>
+        <v>65.927710843373504</v>
+      </c>
+      <c r="D57">
         <v>1328</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>17</v>
       </c>
@@ -4117,10 +4163,19 @@
         <v>1364</v>
       </c>
       <c r="C58">
+        <f t="shared" si="2"/>
+        <v>65.734939759036152</v>
+      </c>
+      <c r="D58">
         <v>1326</v>
       </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>63.903614457831324</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANUL3\PI\1.1.1.1.1.1.Proiect\Image_Processing_Semnaturi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD469F56-D380-4D30-A725-0231930B3648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29E18C2-7311-474B-9A5C-9D322CA0FB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{5696413B-0597-4B9E-A712-CC8800F65BC9}"/>
   </bookViews>
@@ -1014,6 +1014,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cosine similarity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2990,8 +3015,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -3057,15 +3082,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>193674</xdr:colOff>
+      <xdr:colOff>206375</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>222249</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3392,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57025795-8FEE-43BE-90F8-2E92F481DD61}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4177,6 +4202,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>